--- a/Accusation Mock.xlsx
+++ b/Accusation Mock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,11 @@
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Amount</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
         </is>
       </c>
     </row>
@@ -506,7 +511,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>นายสมชาย พงษ์ศิริ ร้องเรียนเกี่ยวกับโครงการก่อสร้างบ้านพักสนามบินสุราษฎร์ธานี มูลค่า 44 ล้านบาท ซึ่งล่าช้าเกินไปตั้งแต่ปี 2563 และยังไม่เสร็จสิ้นในปี 2564 เนื่องจากผู้รับเหมาไม่ดำเนินการตามสัญญาและทิ้งงาน ทำให้โครงการหยุดชะงัก ผู้ร้องเรียกร้องให้มีการตรวจสอบและเร่งรัดการดำเนินงานเพื่อไม่ให้เกิดความเสียหายเพิ่มเติม</t>
+          <t>นายสมชาย พงษ์ศิริ ร้องเรียนเกี่ยวกับโครงการก่อสร้างบ้านพักสนามบินสุราษฎร์ธานี มูลค่า 44 ล้านบาท ที่มีความล่าช้าเกินเหตุ ตั้งแต่ปี 2563 ถึงปัจจุบันยังไม่เสร็จสิ้น เนื่องจากผู้รับเหมาทิ้งงาน และมีการว่าจ้างผู้รับเหมารายใหม่ที่ทิ้งงานเช่นกัน</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -516,7 +521,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>การล่าช้าและการทิ้งงานของโครงการก่อสร้าง</t>
+          <t>ไม่สามารถดำเนินการก่อสร้างให้เสร็จตามกำหนด</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -527,6 +532,12 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>44,000,000 บาท</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ทุจริตในการจัดทำงบประมาณ/โครงการ/เบิกจ่ายเงินในโครงการอันเป็นเท็จ 
+</t>
         </is>
       </c>
     </row>
@@ -554,12 +565,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>นายสมชาย พงษ์ศิริ แจ้งพฤติกรรมเจ้าหน้าที่รัฐในจังหวัดปทุมธานีเรียกรับเงินใต้โต๊ะเพื่อเร่งรัดการจ่ายเงินค่าเวนคืนที่ดิน โดยมีหลักฐานเป็นคลิปเสียง</t>
+          <t>นายสมชาย พงษ์ศิริ รายงานถึงพฤติกรรมของเจ้าหน้าที่ในจังหวัดปทุมธานีที่เรียกรับเงินใต้โต๊ะเพื่อเร่งรัดการจ่ายเงินค่าเวนคืนที่ดิน โดยมีหลักฐานเป็นคลิปเสียง และร้องขอให้มีการตรวจสอบและดำเนินการตามที่ควรเพื่อความโปร่งใสในกระบวนการราชการ.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['เจ้าหน้าที่รัฐ']</t>
+          <t>['เจ้าหน้าที่ข้าราชการในจังหวัดปทุมธานี']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -573,12 +584,17 @@
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">เรียกรับสินบน ให้/ขอให้ หรือรับว่าจะให้ทรัพย์สินหรือประโยชน์อื่นใดแก่เจ้าหน้าที่ของรัฐ
+</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-เรื่อง ขอให้ตรวจสอบกิจกรรมส่งมอบกระเป๋ายา อสม. ในเขตเทศบาลนครอุดรธานี
+          <t>เรื่อง ขอให้ตรวจสอบกิจกรรมส่งมอบกระเป๋ายา อสม. ในเขตเทศบาลนครอุดรธานี
 เรียน ท่านผู้บริหารเทศบาลนครอุดรธานี
 ข้าพเจ้า นายสมชาย พงษ์ศิริ อยู่ที่ 123/45 หมู่ 2 ตำบลบ้านหมากแข้ง อำเภอเมือง จังหวัดอุดรธานี 41000 ขอแจ้งเรื่องที่น่าสงสัยเกี่ยวกับกิจกรรมส่งมอบกระเป๋ายา อสม. ที่จัดขึ้นเมื่อวันที่ 11 ตุลาคม 2564 หลังจากกิจกรรมดังกล่าวเสร็จสิ้น ชาวบ้านได้ทราบว่าการแจกกระเป๋ายาครั้งนี้มีการจัดซื้ออุปกรณ์วิทยาศาสตร์การแพทย์ด้วยวิธีเฉพาะเจาะจง จึงเกิดข้อสงสัยว่ามีความจำเป็นอย่างไรที่ต้องใช้วิธีการนี้ และงบประมาณที่ใช้ไปเท่าไร เมื่อได้สอบถามไปยังหน่วยงานก็ได้รับคำตอบว่าไม่ได้มีการจัดซื้อแต่อย่างใด อุปกรณ์ที่ใช้ในกิจกรรมเป็นการได้รับบริจาคมาเท่านั้น แต่หน่วยงานไมสามารถชี้แจงได้ว่าใครคือผู้บริจาคเมื่อประชาชนยังคงสงสัย จึงได้ส่งเรื่องไปยังสำนักงาน ป.ป.ช. ประจำจังหวัดอุดรธานี แต่กลับได้รับแจ้งว่าไม่สามารถรับเรื่องได้ เนื่องจากตรวจสอบเบื้องต้นไม่พบข้อมูลการจัดซื้อจัดจ้างเกี่ยวกับเครื่องมือดังกล่าวในปี 2564 และ 2565 แต่เรื่องไม่ได้จบเพียงเท่านี้ เพราะในวันที่ 7 กุมภาพันธ์ 2567 มีสำนักงานกฎหมายแห่งหนึ่งส่งหนังสือทวงติดตามหนี้ไปยังเทศบาลนครอุดรธานี เกี่ยวกับการจัดซื้ออุปกรณ์วิทยาศาสตร์หรือการแพทย์จากบริษัท จีวาน โซลูชั่น จำกัด จำนวน 6 รายการ มูลค่ารวมกว่า 7,318,925 บาท ทว่าหลังจากส่งมอบสินค้าให้หน่วยงานแล้ว ผ่านมา 2 ปี กลับยังไม่ได้รับเงินค่าสินค้า ซึ่งรายการอุปกรณ์ทั้ง 6 รายการนั้นคล้ายคลึงกับของที่ใช้แจกในกิจกรรมส่งมอบกระเป๋ายา อสม. ที่ชาวบ้านสงสัย หากมีการจัดซื้อจริง ทำไมถึงไม่มีการประกาศโครงการให้ประชาชนทราบ และเหตุใดทาง ป.ป.ช. ถึงตรวจสอบไม่พบโครงการนี้ แต่กลับมีใบแจ้งหนี้ที่ระบุชื่อโครงการมาทวง
 ข้าพเจ้าจึงขอให้ท่านโปรดตรวจสอบเรื่องนี้อย่างละเอียด เพื่อความโปร่งใสและเพื่อให้ประชาชนได้รับทราบข้อเท็จจริงทั้งหมด
@@ -589,7 +605,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>"ขอให้ตรวจสอบกิจกรรมส่งมอบกระเป๋ายา อสม. ในเขตเทศบาลนครอุดรธานี เมื่อวันที่ 11 ต.ค. 64 เพราะหลังจากจบกิจกรรมชาวบ้านพบว่าการแจกของครั้งนี้มาจากการจัดซื้อ #อุปกรณ์วิทยาศาตร์การแพทย์ ด้วยวิธีเฉพาะเจาะจงจึงเกิดข้อสงสัยและได้ทำหนังสือสอบถามไปยังหน่วยงานว่ามีความจำเป็นอะไรถึงต้องใช้วิธีเฉพาะเจาะจงในการจัดซื้อ และใช้งบประมาณไปเท่าไร #แต่กลับได้คำตอบกลับมาว่าไม่มีการจัดซื้อแต่อย่างใด เป็นการได้รับบริจาคมาเท่านั้น แต่หน่วยงานก็ไม่สามารถชี้แจงได้ว่าใครคือผู้บริจาคอุปกรณ์เหล่านี้ จนประชาชนส่งเรื่องไปยัง สำนักงาน ป.ป.ช. ประจำจังหวัดอุดรธานี แต่ทางหน่วยงานไม่รับเรื่อง เพราะจากการตรวจสอบเบื้องต้นไม่พบข้อมูลการจัดซื้อจัดจ้างเกี่ยวกับเครื่องมือดังกล่าวในปี 64 และ 65 แต่อย่างใด เรื่องเหมือนจะจบเท่านี้ เพราะมีสำนักงานกฎหมายแห่งหนึ่งส่งหนังสือทวงติดตามหนี้ไปยังเทศบาลนครอุดรธานี เมื่อวันที่ 7 ก.พ. 67 เกี่ยวกับการจัดซื้ออุปกรณ์วิทยาศาสาตร์หรือการแพทย์ จาก บริษัท  จีวาน โซลูชั่น จำกัด จำนวน 6 รายการ มูลค่ารวมกว่า 7,318,925 บาท
+          <t>"ขอให้ตรวจสอบกิจกรรมส่งมอบกระเป๋ายา อสม. ในเขตเทศบาลนครอุดรธานี เมื่อวันที่ 11 ต.ค. 64 เพราะหลังจากจบกิจกรรมชาวบ้านพบว่าการแจกของครั้งนี้มาจากการจัดซื้อ #อุปกรณ์วิทยาศาตร์การแพทย์ ด้วยวิธีเฉพาะเจาะจงจึงเกิดข้อสงสัยและได้ทำหนังสือสอบถามไปยังหน่วยงานว่ามีความจำเป็นอะไรถึงต้องใช้วิธีเฉพาะเจาะจงในการจัดซื้อ และใช้งบประมาณไปเท่าไร #แต่กลับได้คำตอบกลับมาว่าไม่มีการจัดซื้อแต่อย่างใด เป็นการได้รับบริจาคมาเท่านั้น แต่หน่วยงานก็ไม่สามารถชี้แจงได้ว่าใครคือผู้บริจาคอุปกรณ์เหล่านี้ จนประชาชนส่งเรื่องไปยัง สำนักงาน ป.ป.ช. ประจำจังหวัดอุดรธานี แต่ทางหน่วยงานไม่รับเรื่อง เพราะจากการตรวจสอบเบื้องต้นไม่พบข้อมูลการจัดซื้อจัดจ้างเกี่ยวกับเครื่องมือดังกล่าวในปี 64 และ 65 แต่อย่างใด เรื่องเหมือนจะจบเท่านี้ เพราะมีสำนักงานกฎหมายแห่งหนึ่งส่งหนังสือทวงติดตามหนี้ไปยังเทศบาลนครอุดรธานี เมื่อวันที่ 7 ก.พ. 67 เกี่ยวกับการจัดซื้ออุปกรณ์วิทยาศาสาตร์หรือการแพทย์ จาก บริษัท จีวาน โซลูชั่น จำกัด จำนวน 6 รายการ มูลค่ารวมกว่า 7,318,925 บาท
 แต่ทว่าหลังการส่งมอบสินค้าให้ทางหน่วยงานไปจนผ่านมา 2 ปีแล้วยังไม่ได้เงินค่าสินค้า ซึ่ง 6 รายการนั้นล้วนใกล้เคียงมากกับของที่ใช้แจกในกิจกรรมส่งมอบกระเป๋ายา อสม. ที่ประชาชนสงสัย ถ้ามีการจัดซื้อจริงทำไมไม่มีการประกาศโครงการให้ประชาชนทราบ แถมทาง ป.ป.ช. ยังตรวจสอบไม่พบโครงการ แต่กลับมีใบแจ้งหนี้ระบุชื่อโครงการมาทวง"</t>
         </is>
       </c>
@@ -600,17 +616,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>นายสมชาย พงษ์ศิริ ขอให้ตรวจสอบกิจกรรมส่งมอบกระเป๋ายา อสม. ในเทศบาลนครอุดรธานี เนื่องจากมีข้อสงสัยเกี่ยวกับการจัดซื้ออุปกรณ์วิทยาศาสตร์การแพทย์ที่ไม่โปร่งใส โดยอ้างว่ามีการจัดซื้อจากบริษัท จีวาน โซลูชั่น จำกัด มูลค่า 7,318,925 บาท แต่ไม่มีการประกาศโครงการและข้อมูลการจัดซื้อในปี 2564-2565 ทำให้เกิดความสงสัยเกี่ยวกับการบริหารจัดการงบประมาณและความโปร่งใสของหน่วยงานที่รับผิดชอบ.</t>
+          <t>นายสมชาย พงษ์ศิริ ขอให้เทศบาลนครอุดรธานีตรวจสอบกิจกรรมส่งมอบกระเป๋ายา อสม. ที่เกิดขึ้นเมื่อวันที่ 11 ตุลาคม 2564 เนื่องจากมีข้อสงสัยเกี่ยวกับการจัดซื้ออุปกรณ์วิทยาศาสตร์การแพทย์ที่ใช้ในการแจก ซึ่งชาวบ้านได้รับข้อมูลว่ากระเป๋ายาไม่ได้มีการจัดซื้อ แต่ได้รับบริจาคมา ขณะที่มีหนังสือทวงหนี้จากสำนักงานกฎหมายเกี่ยวกับการจัดซื้ออุปกรณ์มูลค่ากว่า 7,318,925 บาท ที่ยังไม่ได้รับเงินค่าสินค้า ทำให้เกิดความสงสัยในความโปร่งใสของการดำเนินการ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['เทศบาลนครอุดรธานี', 'บริษัท จีวาน โซลูชั่น จำกัด']</t>
+          <t>['เทศบาลนครอุดรธานี']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ความไม่โปร่งใสในการจัดซื้ออุปกรณ์วิทยาศาสตร์การแพทย์</t>
+          <t>ตรวจสอบการจัดซื้ออุปกรณ์วิทยาศาสตร์การแพทย์ที่เกี่ยวข้องกับกิจกรรมแจกกระเป๋ายา อสม.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -621,6 +637,12 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>7,318,925 บาท</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">จัดซื้อจัดจ้าง 
+</t>
         </is>
       </c>
     </row>
@@ -644,7 +666,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>นายสมชาย พงษ์ศิริ ขอให้เทศบาลเมืองปราจีนบุรีตรวจสอบและเร่งดำเนินการซ่อมแซมถนนคอนกรีตเสริมเหล็กที่ชำรุดบนทางหลวงท้องถิ่น ปจ.ถ.0200 เนื่องจากเกิดการทรุดตัวจากปัญหาของเขื่อนป้องกันตลิ่ง และถนนเส้นนี้ยังไม่ได้รับการซ่อมแซมมานานเกือบปีแล้ว แม้ว่าจะมีการขอรับงบประมาณซ่อมแซมจำนวน 10 ล้านบาทในปีงบประมาณ พ.ศ. 2569 แต่ยังไม่มีความคืบหน้าในการดำเนินการซ่อมแซม</t>
+          <t>นายสมชาย พงษ์ศิริ ขอให้เทศบาลเมืองปราจีนบุรีเร่งตรวจสอบและซ่อมแซมถนนคอนกรีตเสริมเหล็กที่ชำรุดบนทางหลวงท้องถิ่น ปจ.ถ.0200 เนื่องจากถนนเกิดการทรุดตัวจากการบิดตัวของเขื่อนป้องกันตลิ่งและยังไม่ได้รับการซ่อมแซมเกือบปีแล้ว แม้ว่ามีการขออนุมัติงบประมาณ 10 ล้านบาทในปีงบประมาณ 2569 สำหรับการซ่อมแซม แต่ยังไม่มีความคืบหน้าใดๆ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -654,17 +676,23 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ไม่ดำเนินการซ่อมแซมถนนคอนกรีตเสริมเหล็กที่ชำรุด</t>
+          <t>ไม่ดำเนินการซ่อมแซมถนนที่ชำรุด</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>เขตเทศบาลเมืองปราจีนบุรี</t>
+          <t>เทศบาลเมืองปราจีนบุรี</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>10,000,000 บาท</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ปฏิบัติหรือละเว้นการปฏิบัติหน้าที่โดยมิชอบหรือโดยทุจริต
+</t>
         </is>
       </c>
     </row>
@@ -678,8 +706,8 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>"โครงการจัดซื้อพร้อมติดตั้งโคมไฟถนน จำนวน 11 โครงการ ผู้ได้รับการคัดเลือกเป็นคู่สัญญาเป็นรายเดียวกัน : ประเด็นนี้ได้ชี้แจงข้อมูลในเบื้องต้นว่า ตามที่เทศบาลเมืองท่าโขลงได้ประกาศแผนการจัดซื้อจัดจ้าง ประจำปีงบประมาณ พ.ศ. 2566 โดยมีการประกาศโครงการจัดซื้อพร้อมติดตั้งโคมไฟถนน จำนวน 11 โครงการ และคู่สัญญาที่ได้รับการคัดเลือกเป็นรายเดียวกันจริง โดยชี้แจงเพิ่มเติมว่าในกระบวนการจัดซื้อจัดจ้างเทศบาลเมืองท่าโขลง ได้ใช้วิธีการคัดเลือกโดยใช้ข้อมูลผู้ประกอบการซึ่งได้ขึ้นทะเบียนตามบัญชีนวัตกรรม โดยได้ส่งหนังสือเชิญชวนไปยังผู้ประกอบการตามรายชื่อบัญชีนวัตกรรม รวม 20 ราย ซึ่งมีผู้ประกอบการประสงค์เข้าร่วมการคัดเลือก จำนวน 3 ราย 2. ประเด็นโครงการจัดซื้อพร้อมติดตั้งโคมไฟถนน ซอยเทพกุญชร 42 มีการดำเนินการติดตั้งโคมไฟไปแล้วโดยหน่วยงานเป็นผู้ดำเนินการ เมื่อวันที่ 8 มกราคม 2567 ก่อนที่จะมีการอนุมัติ ก่อให้เกิด ข้อสงสัยว่าเป็นการเอื้อประโยชน์แก่ผู้รับเหมาหรือไม่ : ประเด็นนี้ได้ชี้แจงข้อมูลในเบื้องต้นว่าโครงการจัดซื้อพร้อมติดตั้งโคมไฟถนน จำนวน 11 โครงการ ปัจจุบันได้ลงนามในสัญญาจ้างไปแล้วบางโครงการ แต่ทุกโครงการผู้รับจ้างยังไม่ได้เริ่มดำเนินการติดตั้งโคมไฟถนนแต่อย่างใด โดยให้ข้อมูลเพิ่มเติมว่าบริเวณซอยดังกล่าว เมื่อประมาณเดือนสิงหาคม 2566 เทศบาลเมืองท่าโขลงได้ประสานความร่วมมือให้การไฟฟ้าส่วนภูมิภาครังสิต มาช่วยดำเนินการติดตั้งโคมไฟถนนส่องสว่างบริเวณดังกล่าวให้ไปพลางก่อน เนื่องจากเกรงว่าหากรอดำเนินโครงการจะเกิดความล่าช้าและจะเกิดความเดือดร้อนแก่ประชาชน โดยเทศบาลได้อุดหนุนโคมไฟให้การไฟฟ้าฯติดตั้ง รวมเป็นเงิน จำนวน 27,000 บาท เป็นระยะทางประมาณ 500 เมตร จำนวน 23 โคม เป็นโคมไฟ ขนาด 20 วัตต์ ซึ่งภายหลังประชาชนในซอยดังกล่าวแจ้งว่าความสว่างน้อยเกินไป ขอให้เปลี่ยนเป็นโคมไฟที่มีระดับความสว่างมากขึ้น และขอให้ติดตั้งโคมไฟส่องสว่างตลอดความยาวทั้งซอย ประมาณ 1,000 เมตรเศษ  
- 3. กรณีเกิดความสงสัยว่าโคมไฟเดิมที่ยังสามารถใช้การได้ตามปกติ จะนำไปไหน และเป็นการใช้งบประมาณอย่างคุ้มค่าหรือไม่ : ประเด็นนี้ได้ชี้แจงในเบื้องต้นว่าโคมไฟเดิมที่ถอดออกและมีระดับความสว่างไม่เพียงพอที่จะใช้ติดตั้งเพื่อส่องสว่างในพื้นที่ๆเป็นซอยขนาดใหญ่ มีแผนจะนำไปติดตั้งในซอยขนาดเล็ก และเก็บไว้สำรองเผื่อการซ่อมแซมการติดตั้งโคมไฟในซอยที่มีขนาดเล็กในเขตพื้นที่บริการในเบื้องต้น ผู้อำนวยการสำนักงาน ป.ป.ช. ประจำจังหวัดปทุมธานี  ได้กำชับให้ผู้ที่เกี่ยวข้องดำเนินการโดยยึดถือระเบียบกฎหมายโดยเคร่งครัด และแจ้งเทศบาลเมืองท่าโขลง ให้ชี้แจงรายละเอียดการดำเนินการในเรื่องดังกล่าวตามที่เกิดเป็นข่าวพร้อมเอกสารหลักฐานที่เกี่ยวข้องส่งไปยังสำนักงาน ป.ป.ช. ประจำจังหวัดปทุมธานีโดยละเอียดอีกครั้ง พร้อมแนะนำให้หน่วยงานให้ความสำคัญในเรื่องการประชาสัมพันธ์ข้อมูลข่าวสารตลอดถึงรายละเอียดการดำเนินโครงการให้ประชาชนได้รับทราบการดำเนินโครงการของหน่วยงาน ทั้งนี้ สำนักงาน ป.ป.ช. ประจำจังหวัดปทุมธานี  จะรวบรวมข้อมูล ข้อเท็จจริง ตลอดจนพยานหลักฐานที่เกี่ยวข้อง หากพบว่าการดำเนินโครงการดังกล่าวมีพฤติการณ์กระทำโดยไม่ชอบด้วยระเบียบ กฎหมาย หรือก่อให้เกิดความเสียหายแก่ทางราชการจะพิจารณาดำเนินการตามหน้าที่และอำนาจต่อไป"</t>
+          <t>"โครงการจัดซื้อพร้อมติดตั้งโคมไฟถนน จำนวน 11 โครงการ ผู้ได้รับการคัดเลือกเป็นคู่สัญญาเป็นรายเดียวกัน : ประเด็นนี้ได้ชี้แจงข้อมูลในเบื้องต้นว่า ตามที่เทศบาลเมืองท่าโขลงได้ประกาศแผนการจัดซื้อจัดจ้าง ประจำปีงบประมาณ พ.ศ. 2566 โดยมีการประกาศโครงการจัดซื้อพร้อมติดตั้งโคมไฟถนน จำนวน 11 โครงการ และคู่สัญญาที่ได้รับการคัดเลือกเป็นรายเดียวกันจริง โดยชี้แจงเพิ่มเติมว่าในกระบวนการจัดซื้อจัดจ้างเทศบาลเมืองท่าโขลง ได้ใช้วิธีการคัดเลือกโดยใช้ข้อมูลผู้ประกอบการซึ่งได้ขึ้นทะเบียนตามบัญชีนวัตกรรม โดยได้ส่งหนังสือเชิญชวนไปยังผู้ประกอบการตามรายชื่อบัญชีนวัตกรรม รวม 20 ราย ซึ่งมีผู้ประกอบการประสงค์เข้าร่วมการคัดเลือก จำนวน 3 ราย 2. ประเด็นโครงการจัดซื้อพร้อมติดตั้งโคมไฟถนน ซอยเทพกุญชร 42 มีการดำเนินการติดตั้งโคมไฟไปแล้วโดยหน่วยงานเป็นผู้ดำเนินการ เมื่อวันที่ 8 มกราคม 2567 ก่อนที่จะมีการอนุมัติ ก่อให้เกิด ข้อสงสัยว่าเป็นการเอื้อประโยชน์แก่ผู้รับเหมาหรือไม่ : ประเด็นนี้ได้ชี้แจงข้อมูลในเบื้องต้นว่าโครงการจัดซื้อพร้อมติดตั้งโคมไฟถนน จำนวน 11 โครงการ ปัจจุบันได้ลงนามในสัญญาจ้างไปแล้วบางโครงการ แต่ทุกโครงการผู้รับจ้างยังไม่ได้เริ่มดำเนินการติดตั้งโคมไฟถนนแต่อย่างใด โดยให้ข้อมูลเพิ่มเติมว่าบริเวณซอยดังกล่าว เมื่อประมาณเดือนสิงหาคม 2566 เทศบาลเมืองท่าโขลงได้ประสานความร่วมมือให้การไฟฟ้าส่วนภูมิภาครังสิต มาช่วยดำเนินการติดตั้งโคมไฟถนนส่องสว่างบริเวณดังกล่าวให้ไปพลางก่อน เนื่องจากเกรงว่าหากรอดำเนินโครงการจะเกิดความล่าช้าและจะเกิดความเดือดร้อนแก่ประชาชน โดยเทศบาลได้อุดหนุนโคมไฟให้การไฟฟ้าฯติดตั้ง รวมเป็นเงิน จำนวน 27,000 บาท เป็นระยะทางประมาณ 500 เมตร จำนวน 23 โคม เป็นโคมไฟ ขนาด 20 วัตต์ ซึ่งภายหลังประชาชนในซอยดังกล่าวแจ้งว่าความสว่างน้อยเกินไป ขอให้เปลี่ยนเป็นโคมไฟที่มีระดับความสว่างมากขึ้น และขอให้ติดตั้งโคมไฟส่องสว่างตลอดความยาวทั้งซอย ประมาณ 1,000 เมตรเศษ 
+3. กรณีเกิดความสงสัยว่าโคมไฟเดิมที่ยังสามารถใช้การได้ตามปกติ จะนำไปไหน และเป็นการใช้งบประมาณอย่างคุ้มค่าหรือไม่ : ประเด็นนี้ได้ชี้แจงในเบื้องต้นว่าโคมไฟเดิมที่ถอดออกและมีระดับความสว่างไม่เพียงพอที่จะใช้ติดตั้งเพื่อส่องสว่างในพื้นที่ๆเป็นซอยขนาดใหญ่ มีแผนจะนำไปติดตั้งในซอยขนาดเล็ก และเก็บไว้สำรองเผื่อการซ่อมแซมการติดตั้งโคมไฟในซอยที่มีขนาดเล็กในเขตพื้นที่บริการในเบื้องต้น ผู้อำนวยการสำนักงาน ป.ป.ช. ประจำจังหวัดปทุมธานี ได้กำชับให้ผู้ที่เกี่ยวข้องดำเนินการโดยยึดถือระเบียบกฎหมายโดยเคร่งครัด และแจ้งเทศบาลเมืองท่าโขลง ให้ชี้แจงรายละเอียดการดำเนินการในเรื่องดังกล่าวตามที่เกิดเป็นข่าวพร้อมเอกสารหลักฐานที่เกี่ยวข้องส่งไปยังสำนักงาน ป.ป.ช. ประจำจังหวัดปทุมธานีโดยละเอียดอีกครั้ง พร้อมแนะนำให้หน่วยงานให้ความสำคัญในเรื่องการประชาสัมพันธ์ข้อมูลข่าวสารตลอดถึงรายละเอียดการดำเนินโครงการให้ประชาชนได้รับทราบการดำเนินโครงการของหน่วยงาน ทั้งนี้ สำนักงาน ป.ป.ช. ประจำจังหวัดปทุมธานี จะรวบรวมข้อมูล ข้อเท็จจริง ตลอดจนพยานหลักฐานที่เกี่ยวข้อง หากพบว่าการดำเนินโครงการดังกล่าวมีพฤติการณ์กระทำโดยไม่ชอบด้วยระเบียบ กฎหมาย หรือก่อให้เกิดความเสียหายแก่ทางราชการจะพิจารณาดำเนินการตามหน้าที่และอำนาจต่อไป"</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -689,7 +717,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>มีการร้องเรียนเกี่ยวกับโครงการจัดซื้อและติดตั้งโคมไฟถนนในเขตเทศบาลเมืองท่าโขลง โดยมีข้อสงสัยเกี่ยวกับความโปร่งใสในการคัดเลือกคู่สัญญาที่เป็นรายเดียวกัน และการติดตั้งโคมไฟก่อนการอนุมัติโครงการ ซึ่งอาจเป็นการเอื้อประโยชน์แก่ผู้รับเหมา รวมถึงความไม่ชัดเจนในการจัดการโคมไฟเดิมที่ยังใช้งานได้</t>
+          <t>นายสมชาย พงษ์ศิริ ขอให้ตรวจสอบความโปร่งใสในการดำเนินโครงการจัดซื้อพร้อมติดตั้งโคมไฟถนนในเทศบาลเมืองท่าโขลง เนื่องจากมีข้อสงสัยเกี่ยวกับการคัดเลือกผู้รับเหมาและการติดตั้งโคมไฟก่อนการอนุมัติโครงการ รวมถึงการใช้งบประมาณที่อาจไม่คุ้มค่า</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -699,15 +727,21 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>การดำเนินโครงการไม่โปร่งใสและมีการเอื้อประโยชน์แก่ผู้รับเหมา</t>
+          <t>ไม่โปร่งใสในการคัดเลือกผู้รับเหมาและการดำเนินโครงการ</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>เขตเทศบาลเมืองท่าโขลง</t>
+          <t>เทศบาลเมืองท่าโขลง</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">จัดซื้อจัดจ้าง 
+</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -729,7 +763,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>นายสมชาย พงษ์ศิริ ขอให้กรมทรัพยากรน้ำบาดาลตรวจสอบโครงการพัฒนาน้ำบาดาลเพื่อการเกษตรแปลงใหญ่ที่บ้านคลองวังทอง ซึ่งดำเนินการเสร็จเกือบสามปีแล้ว แต่ไม่ถูกใช้งานและมีสภาพทรุดโทรม.</t>
+          <t>นายสมชาย พงษ์ศิริ ขอให้กรมทรัพยากรน้ำบาดาลตรวจสอบโครงการพัฒนาน้ำบาดาลเพื่อการเกษตรแปลงใหญ่ ที่บ้านคลองวังทอง ต.คลองยาง อ.สวรรคโลก จ.สุโขทัย ซึ่งสร้างเสร็จเกือบสามปีแล้ว แต่ไม่ได้ใช้งานและมีสภาพทรุดโทรม ขอบริหารจัดการงบประมาณที่ 113 ล้านบาท ให้เกิดประโยชน์ต่อชาวบ้านในพื้นที่</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -739,7 +773,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ไม่ใช้งานโครงการพัฒนาน้ำบาดาลที่สร้างเสร็จแล้ว</t>
+          <t>ปล่อยทิ้งโครงการน้ำบาดาลที่ไม่ใช้งาน</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -750,6 +784,12 @@
       <c r="H7" t="inlineStr">
         <is>
           <t>113,000,000 บาท</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ทุจริตในการจัดทำงบประมาณ/โครงการ/เบิกจ่ายเงินในโครงการอันเป็นเท็จ 
+</t>
         </is>
       </c>
     </row>
@@ -773,7 +813,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>นายสมชาย พงษ์ศิริ ขอให้ตรวจสอบและเร่งแก้ไขปัญหาถนนคอนกรีตที่ก่อสร้างในหมู่ 7 อ.รือเสาะ จ.นราธิวาส มูลค่า 6,352,200 บาท ซึ่งเริ่มมีปัญหาหลังจากก่อสร้างเสร็จไม่นาน โดยพื้นผิวถนนมีการชำรุด และมีข้อกังวลเกี่ยวกับความโปร่งใสในการก่อสร้าง</t>
+          <t>ขอให้ตรวจสอบและเร่งแก้ไขปัญหาถนนคอนกรีตในหมู่ 7 อ.รือเสาะ จ.นราธิวาส หลังจากก่อสร้างเสร็จไม่ถึงเดือน ปัญหาพื้นผิวถนนเริ่มมีชำรุด หินโผล่ นายก อบต. ใช้ชื่อห้างของลูกน้องคนสนิทรับงาน สร้างความกังวลใจถึงความโปร่งใสและคุณภาพของงาน แม้ ป.ป.ช. จะตรวจสอบแล้วแต่ปัญหายังคงไม่ถูกแก้ไขอย่างสมบูรณ์</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -783,17 +823,23 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ใช้ชื่อห้างของลูกน้องคนสนิทมารับงานเอง</t>
+          <t>ใช้ชื่อห้างของลูกน้องคนสนิทรับงานก่อสร้างถนนคอนกรีต</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>หมู่ 7 อ.รือเสาะ จ.นราธิวาส</t>
+          <t>หมู่ 7 อำเภอรือเสาะ จังหวัดนราธิวาส</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>6,352,200 บาท</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">จัดซื้อจัดจ้าง 
+</t>
         </is>
       </c>
     </row>
@@ -807,7 +853,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ชาวต้องแฉเมืองตรังเขาส่งมาให้แอดดูว่าเห็นรถยนต์ของสถานีตำรวจภูธร (สภ.) แห่งหนึ่งในพื้นที่ อ.กันตัง จ.ตรัง จอดอยู่ในโรงรถของห้องแถว ที่เป็นบ้านพักส่วนบุคคลเป็นประจำ จอดจนนึกว่านี่คือโรงพักซะอีกนะเนี่ยย พบการจอดทั้งตอนเวลาเลิกงาน ทั้งวันหยุด  หรือนี่เป็นระเบียบที่สามารถให้เจ้าหน้าที่นำไปใช้ส่วนตัวได้หรือเปล่า เพราะแอดเคยได้ยินมาว่ามีสวัสดิการแบบนี้ให้กับบางตำแหน่ง ฝากหน่วยงานไปตรวจสอบดูหน่อยย คนในพื้นที่เขารอคำตอบอยู่</t>
+          <t>ชาวต้องแฉเมืองตรังเขาส่งมาให้แอดดูว่าเห็นรถยนต์ของสถานีตำรวจภูธร (สภ.) แห่งหนึ่งในพื้นที่ อ.กันตัง จ.ตรัง จอดอยู่ในโรงรถของห้องแถว ที่เป็นบ้านพักส่วนบุคคลเป็นประจำ จอดจนนึกว่านี่คือโรงพักซะอีกนะเนี่ยย พบการจอดทั้งตอนเวลาเลิกงาน ทั้งวันหยุด หรือนี่เป็นระเบียบที่สามารถให้เจ้าหน้าที่นำไปใช้ส่วนตัวได้หรือเปล่า เพราะแอดเคยได้ยินมาว่ามีสวัสดิการแบบนี้ให้กับบางตำแหน่ง ฝากหน่วยงานไปตรวจสอบดูหน่อยย คนในพื้นที่เขารอคำตอบอยู่</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -817,7 +863,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>มีการร้องเรียนเกี่ยวกับการใช้รถยนต์ของสถานีตำรวจภูธรใน อ.กันตัง จ.ตรัง ที่จอดอยู่ในบ้านพักส่วนบุคคลเป็นประจำ ทำให้เกิดข้อสงสัยเกี่ยวกับการนำรถราชการไปใช้ส่วนตัวและขอให้มีการตรวจสอบและชี้แจงเรื่องนี้เพื่อความโปร่งใสในชุมชน.</t>
+          <t>มีการร้องเรียนจากชาวบ้านในพื้นที่ อ.กันตัง จ.ตรัง เกี่ยวกับการใช้รถยนต์ของสถานีตำรวจภูธร ซึ่งถูกจอดอยู่ในโรงรถของบ้านพักส่วนบุคคลเป็นประจำ ทำให้เกิดข้อสงสัยเกี่ยวกับการใช้รถราชการในทางส่วนตัว ขอให้ผู้กำกับตรวจสอบและชี้แจงให้ชาวบ้านทราบเพื่อความโปร่งใส</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -827,7 +873,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>นำรถราชการไปใช้ส่วนตัว</t>
+          <t>นำรถของทางราชการไปใช้ส่วนตัว</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -836,6 +882,12 @@
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">การขัดกันระหว่างประโยชน์ส่วนบุคคลและประโยชน์ส่วนรวม 
+</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -858,7 +910,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>การร้องเรียนเกี่ยวกับโครงการขยายท่อน้ำประปาของเทศบาลตำบลคลองขุดที่ไม่สามารถใช้งานได้ตามปกติ หลังจากที่มีการดำเนินโครงการ เจ้าหน้าที่ได้ลงพื้นที่ตรวจสอบแล้วแต่ปัญหายังไม่ได้รับการแก้ไขอย่างสมบูรณ์ ทำให้ประชาชนได้รับความเดือดร้อน</t>
+          <t>ขอให้ตรวจสอบการดำเนินโครงการขยายท่อน้ำประปาของเทศบาลตำบลคลองขุด เนื่องจากระบบน้ำประปายังคงไม่สามารถใช้งานได้ตามปกติ แม้จะมีการตรวจสอบจากเจ้าหน้าที่แล้ว แต่ยังไม่สามารถแก้ไขปัญหาได้ ทำให้ประชาชนได้รับความเดือดร้อน.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -868,15 +920,21 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ไม่สามารถใช้งานน้ำประปาตามปกติหลังดำเนินโครงการขยาย</t>
+          <t>ไม่สามารถแก้ไขปัญหาระบบน้ำประปาได้</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ตำบลคลองขุด</t>
+          <t>ตำบลคลองขุด, อำเภอเมือง, จังหวัด [จังหวัดของท่าน]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ปฏิบัติหรือละเว้นการปฏิบัติหน้าที่โดยมิชอบหรือโดยทุจริต 
+</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -889,7 +947,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ลงพื้นที่ติดตามแนวทางการดำเนินโครงการ “ปรับแหล่งน้ำเพื่อแก้ไขปัญหาน้ำท่วมซ้ำซาก” บ้านปลักปลา หมู่4 ตำบลโฆษิต อำเภอตากใบ จังหวัดนราธิวาส ของโครงการส่งน้ำและบำรุงรักษาโก-ลก  โครงการดังกล่าวยังไม่ได้รับการร้องเรียนการทุจริตและยังไม่เริ่มก่อสร้าง แต่เนื่องจากใช้งบประมาณก่อสร้างกว่า 21 ล้านบาท </t>
+          <t>ลงพื้นที่ติดตามแนวทางการดำเนินโครงการ “ปรับแหล่งน้ำเพื่อแก้ไขปัญหาน้ำท่วมซ้ำซาก” บ้านปลักปลา หมู่4 ตำบลโฆษิต อำเภอตากใบ จังหวัดนราธิวาส ของโครงการส่งน้ำและบำรุงรักษาโก-ลก โครงการดังกล่าวยังไม่ได้รับการร้องเรียนการทุจริตและยังไม่เริ่มก่อสร้าง แต่เนื่องจากใช้งบประมาณก่อสร้างกว่า 21 ล้านบาท</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -899,11 +957,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>นายสมชาย พงษ์ศิริ ขอให้ติดตามและตรวจสอบโครงการ "ปรับแหล่งน้ำเพื่อแก้ไขปัญหาน้ำท่วมซ้ำซาก" ที่บ้านปลักปลา หมู่ 4 ตำบลโฆษิต อำเภอตากใบ จังหวัดนราธิวาส เนื่องจากงบประมาณสูงถึง 21 ล้านบาท ชาวบ้านกังวลเกี่ยวกับความโปร่งใสและประสิทธิภาพของโครงการ โดยขอให้มีการตรวจสอบตั้งแต่การวางแผนจนถึงการก่อสร้าง รวมถึงการสื่อสารกับประชาชนอย่างต่อเนื่อง เพื่อสร้างความเชื่อมั่นและแก้ไขปัญหาที่อาจเกิดขึ้นได้</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+          <t>นายสมชาย พงษ์ศิริ ขอให้ติดตามและตรวจสอบโครงการ "ปรับแหล่งน้ำเพื่อแก้ไขปัญหาน้ำท่วมซ้ำซาก" ที่บ้านปลักปลา อ. ตากใบ จ. นราธิวาส เนื่องจากงบประมาณสูงถึง 21 ล้านบาท ชาวบ้านกังวลเกี่ยวกับความโปร่งใสและประสิทธิภาพของโครงการ จึงขอให้มีการตรวจสอบในทุกขั้นตอนการดำเนินงานและมีการสื่อสารกับประชาชนอย่างต่อเนื่องเพื่อสร้างความเชื่อมั่น</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['โครงการส่งน้ำและบำรุงรักษาโก-ลก']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>กังวลเกี่ยวกับความโปร่งใสและประสิทธิภาพของโครงการ</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>บ้านปลักปลา หมู่ 4 ตำบลโฆษิต อำเภอตากใบ จังหวัดนราธิวาส</t>
@@ -911,7 +977,13 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21 ล้านบาท</t>
+          <t>21,000,000 บาท</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">การขัดกันระหว่างประโยชน์ส่วนบุคคลและประโยชน์ส่วนรวม 
+</t>
         </is>
       </c>
     </row>
